--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_架构组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_架构组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="25920"/>
+    <workbookView windowWidth="25780" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>No</t>
   </si>
@@ -92,6 +92,15 @@
     <t>架构组</t>
   </si>
   <si>
+    <t>周蓉/施超</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
     <t>连接池可靠性优化</t>
   </si>
   <si>
@@ -99,6 +108,9 @@
   </si>
   <si>
     <t>沙周麟</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
   </si>
   <si>
     <t>冲正的唯一性</t>
@@ -114,6 +126,12 @@
   </si>
   <si>
     <t>田志敏</t>
+  </si>
+  <si>
+    <t>赵良智</t>
+  </si>
+  <si>
+    <t>待测试</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -145,12 +163,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -183,13 +201,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -203,16 +231,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,9 +260,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,31 +276,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,9 +306,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,34 +335,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +360,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -372,13 +377,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,25 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,25 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,25 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,25 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,25 +545,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,80 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -749,168 +680,242 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,13 +1001,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,10 +1019,10 @@
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="甘特图" xfId="1"/>
-    <cellStyle name="常规 9" xfId="2"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 3 12" xfId="1"/>
+    <cellStyle name="常规 6" xfId="2"/>
+    <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="甘特图" xfId="4"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
@@ -1407,10 +1412,10 @@
   <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="2.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="11" customWidth="1"/>
@@ -1420,7 +1425,7 @@
     <col min="6" max="6" width="9.875" style="11" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="10" customWidth="1"/>
     <col min="8" max="8" width="9.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="11" customWidth="1"/>
     <col min="10" max="10" width="13.125" style="10" customWidth="1"/>
     <col min="11" max="11" width="10.625" style="10" customWidth="1"/>
     <col min="12" max="12" width="6.625" style="10" customWidth="1"/>
@@ -1435,7 +1440,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="26.25" spans="1:19">
+    <row r="1" s="8" customFormat="1" ht="13.75" spans="1:19">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="27" spans="1:20">
+    <row r="2" s="9" customFormat="1" spans="1:20">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1526,28 +1531,36 @@
       <c r="K2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26"/>
+      <c r="L2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="23">
+        <v>42466</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
       <c r="S2" s="30"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="3" s="9" customFormat="1" spans="1:20">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>22</v>
@@ -1563,27 +1576,35 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="26"/>
+      <c r="L3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="23">
+        <v>42466</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="30"/>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="27" spans="1:20">
+    <row r="4" s="9" customFormat="1" spans="1:20">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>20</v>
@@ -1605,33 +1626,41 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="26"/>
+      <c r="L4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="23">
+        <v>42466</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="30"/>
       <c r="T4" s="31"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="5" s="9" customFormat="1" spans="1:20">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
@@ -1647,13 +1676,17 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="26"/>
+      <c r="L5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="N5" s="23"/>
       <c r="O5" s="26"/>
       <c r="P5" s="29"/>
@@ -1662,7 +1695,7 @@
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="6" s="9" customFormat="1" spans="1:20">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1684,7 +1717,7 @@
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="7" s="9" customFormat="1" spans="1:20">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="16"/>
@@ -1706,7 +1739,7 @@
       <c r="S7" s="30"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="8" s="9" customFormat="1" spans="1:20">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
@@ -1728,7 +1761,7 @@
       <c r="S8" s="30"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="9" s="9" customFormat="1" spans="1:20">
       <c r="A9" s="14"/>
       <c r="B9" s="18"/>
       <c r="C9" s="16"/>
@@ -1750,7 +1783,7 @@
       <c r="S9" s="30"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="10" s="9" customFormat="1" spans="1:20">
       <c r="A10" s="14"/>
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
@@ -1772,7 +1805,7 @@
       <c r="S10" s="30"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="11" s="9" customFormat="1" spans="1:20">
       <c r="A11" s="14"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -1794,7 +1827,7 @@
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="12" s="9" customFormat="1" spans="1:20">
       <c r="A12" s="14"/>
       <c r="B12" s="18"/>
       <c r="C12" s="16"/>
@@ -1816,7 +1849,7 @@
       <c r="S12" s="30"/>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="13" s="9" customFormat="1" spans="1:20">
       <c r="A13" s="14"/>
       <c r="B13" s="18"/>
       <c r="C13" s="16"/>
@@ -1838,7 +1871,7 @@
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="14" s="9" customFormat="1" spans="1:20">
       <c r="A14" s="14"/>
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
@@ -1860,7 +1893,7 @@
       <c r="S14" s="30"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="15" s="9" customFormat="1" spans="1:20">
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
@@ -1882,7 +1915,7 @@
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="16" s="9" customFormat="1" spans="1:20">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1904,7 +1937,7 @@
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="17" s="9" customFormat="1" spans="1:20">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1926,7 +1959,7 @@
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="18" s="9" customFormat="1" spans="1:20">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1948,7 +1981,7 @@
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
     </row>
-    <row r="19" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="19" s="9" customFormat="1" spans="1:20">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1970,7 +2003,7 @@
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="20" s="9" customFormat="1" spans="1:20">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -1992,7 +2025,7 @@
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="21" s="9" customFormat="1" spans="1:20">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -2014,7 +2047,7 @@
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="22" s="9" customFormat="1" spans="1:20">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -2036,7 +2069,7 @@
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="23" s="9" customFormat="1" spans="1:20">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -2058,7 +2091,7 @@
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="24" s="9" customFormat="1" spans="1:20">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -2080,7 +2113,7 @@
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
     </row>
-    <row r="25" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="25" s="9" customFormat="1" spans="1:20">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -2102,7 +2135,7 @@
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="26" s="9" customFormat="1" spans="1:20">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -2124,7 +2157,7 @@
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
     </row>
-    <row r="27" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="27" s="9" customFormat="1" spans="1:20">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -2146,7 +2179,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="28" s="9" customFormat="1" spans="1:20">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -2168,7 +2201,7 @@
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
     </row>
-    <row r="29" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="29" s="9" customFormat="1" spans="1:20">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -2190,7 +2223,7 @@
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="30" s="9" customFormat="1" spans="1:20">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -2212,7 +2245,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="31" s="9" customFormat="1" spans="1:20">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -2234,7 +2267,7 @@
       <c r="S31" s="30"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="32" s="9" customFormat="1" spans="1:20">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -2256,7 +2289,7 @@
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="33" s="9" customFormat="1" spans="1:20">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -2278,7 +2311,7 @@
       <c r="S33" s="30"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="34" s="9" customFormat="1" spans="1:20">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -2300,7 +2333,7 @@
       <c r="S34" s="30"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="35" s="9" customFormat="1" spans="1:20">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -2322,7 +2355,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="36" s="9" customFormat="1" spans="1:20">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -2344,7 +2377,7 @@
       <c r="S36" s="30"/>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="37" s="9" customFormat="1" spans="1:20">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -2366,7 +2399,7 @@
       <c r="S37" s="30"/>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="38" s="9" customFormat="1" spans="1:20">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -2388,7 +2421,7 @@
       <c r="S38" s="30"/>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="39" s="9" customFormat="1" spans="1:20">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -2410,7 +2443,7 @@
       <c r="S39" s="30"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="40" s="9" customFormat="1" spans="1:20">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -2432,7 +2465,7 @@
       <c r="S40" s="30"/>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="41" s="9" customFormat="1" spans="1:20">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -2454,7 +2487,7 @@
       <c r="S41" s="30"/>
       <c r="T41" s="31"/>
     </row>
-    <row r="42" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="42" s="9" customFormat="1" spans="1:20">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -2476,7 +2509,7 @@
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="43" s="9" customFormat="1" spans="1:20">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2498,7 +2531,7 @@
       <c r="S43" s="30"/>
       <c r="T43" s="31"/>
     </row>
-    <row r="44" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="44" s="9" customFormat="1" spans="1:20">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2520,7 +2553,7 @@
       <c r="S44" s="30"/>
       <c r="T44" s="31"/>
     </row>
-    <row r="45" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="45" s="9" customFormat="1" spans="1:20">
       <c r="A45" s="14"/>
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
@@ -2542,7 +2575,7 @@
       <c r="S45" s="30"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="46" s="9" customFormat="1" spans="1:20">
       <c r="A46" s="14"/>
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
@@ -2564,7 +2597,7 @@
       <c r="S46" s="30"/>
       <c r="T46" s="31"/>
     </row>
-    <row r="47" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="47" s="9" customFormat="1" spans="1:20">
       <c r="A47" s="14"/>
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
@@ -2586,7 +2619,7 @@
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
     </row>
-    <row r="48" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="48" s="9" customFormat="1" spans="1:20">
       <c r="A48" s="14"/>
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
@@ -2608,7 +2641,7 @@
       <c r="S48" s="30"/>
       <c r="T48" s="31"/>
     </row>
-    <row r="49" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="49" s="9" customFormat="1" spans="1:20">
       <c r="A49" s="14"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2630,7 +2663,7 @@
       <c r="S49" s="30"/>
       <c r="T49" s="31"/>
     </row>
-    <row r="50" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="50" s="9" customFormat="1" spans="1:20">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="19"/>
@@ -2652,7 +2685,7 @@
       <c r="S50" s="20"/>
       <c r="T50" s="31"/>
     </row>
-    <row r="51" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="51" s="9" customFormat="1" spans="1:20">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="19"/>
@@ -2674,7 +2707,7 @@
       <c r="S51" s="20"/>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" ht="13.5" spans="1:19">
+    <row r="52" spans="1:19">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2695,7 +2728,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" ht="13.5" spans="1:19">
+    <row r="53" spans="1:19">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2716,7 +2749,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" ht="13.5" spans="1:19">
+    <row r="54" spans="1:19">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2737,7 +2770,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" ht="13.5" spans="1:19">
+    <row r="55" spans="1:19">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2758,7 +2791,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" ht="13.5" spans="1:19">
+    <row r="56" spans="1:19">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2779,7 +2812,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" ht="13.5" spans="1:19">
+    <row r="57" spans="1:19">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2800,7 +2833,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" ht="13.5" spans="1:19">
+    <row r="58" spans="1:19">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2821,7 +2854,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" ht="13.5" spans="1:19">
+    <row r="59" spans="1:19">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2842,7 +2875,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" ht="13.5" spans="1:19">
+    <row r="60" spans="1:19">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2863,7 +2896,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" ht="13.5" spans="1:19">
+    <row r="61" spans="1:19">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2884,7 +2917,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" ht="13.5" spans="1:19">
+    <row r="62" spans="1:19">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2905,7 +2938,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" ht="13.5" spans="1:19">
+    <row r="63" spans="1:19">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2926,7 +2959,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" ht="13.5" spans="1:19">
+    <row r="64" spans="1:19">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2947,7 +2980,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" ht="13.5" spans="1:19">
+    <row r="65" spans="1:19">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2968,7 +3001,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" ht="13.5" spans="1:19">
+    <row r="66" spans="1:19">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2989,7 +3022,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" ht="13.5" spans="1:19">
+    <row r="67" spans="1:19">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -3010,7 +3043,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" ht="13.5" spans="1:19">
+    <row r="68" spans="1:19">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -3031,7 +3064,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" ht="13.5" spans="1:19">
+    <row r="69" spans="1:19">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -3052,7 +3085,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" ht="13.5" spans="1:19">
+    <row r="70" spans="1:19">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -3073,7 +3106,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" ht="13.5" spans="1:19">
+    <row r="71" spans="1:19">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -3094,7 +3127,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" ht="13.5" spans="1:19">
+    <row r="72" spans="1:19">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -3115,7 +3148,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" ht="13.5" spans="1:19">
+    <row r="73" spans="1:19">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -3136,7 +3169,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" ht="13.5" spans="1:19">
+    <row r="74" spans="1:19">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -3157,7 +3190,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" ht="13.5" spans="1:19">
+    <row r="75" spans="1:19">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -3178,7 +3211,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" ht="13.5" spans="1:19">
+    <row r="76" spans="1:19">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -3199,7 +3232,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" ht="13.5" spans="1:19">
+    <row r="77" spans="1:19">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -3220,7 +3253,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" ht="13.5" spans="1:19">
+    <row r="78" spans="1:19">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -3241,7 +3274,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" ht="13.5" spans="1:19">
+    <row r="79" spans="1:19">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -3262,7 +3295,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" ht="13.5" spans="1:19">
+    <row r="80" spans="1:19">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -3283,7 +3316,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" ht="13.5" spans="1:19">
+    <row r="81" spans="1:19">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -3304,7 +3337,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" ht="13.5" spans="1:19">
+    <row r="82" spans="1:19">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -3325,7 +3358,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" ht="13.5" spans="1:19">
+    <row r="83" spans="1:19">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3346,7 +3379,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" ht="13.5" spans="1:19">
+    <row r="84" spans="1:19">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3367,7 +3400,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" ht="13.5" spans="1:19">
+    <row r="85" spans="1:19">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3388,7 +3421,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" ht="13.5" spans="1:19">
+    <row r="86" spans="1:19">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3409,7 +3442,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" ht="13.5" spans="1:19">
+    <row r="87" spans="1:19">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3430,7 +3463,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" ht="13.5" spans="1:19">
+    <row r="88" spans="1:19">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3451,7 +3484,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" ht="13.5" spans="1:19">
+    <row r="89" spans="1:19">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3472,7 +3505,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" ht="13.5" spans="1:19">
+    <row r="90" spans="1:19">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3493,7 +3526,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" ht="13.5" spans="1:19">
+    <row r="91" spans="1:19">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3514,7 +3547,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" ht="13.5" spans="1:19">
+    <row r="92" spans="1:19">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3535,7 +3568,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" ht="13.5" spans="1:19">
+    <row r="93" spans="1:19">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3556,7 +3589,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" ht="13.5" spans="1:19">
+    <row r="94" spans="1:19">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3577,7 +3610,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" ht="13.5" spans="1:19">
+    <row r="95" spans="1:19">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3598,7 +3631,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" ht="13.5" spans="1:19">
+    <row r="96" spans="1:19">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3619,7 +3652,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" ht="13.5" spans="1:19">
+    <row r="97" spans="1:19">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3640,7 +3673,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" ht="13.5" spans="1:19">
+    <row r="98" spans="1:19">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3661,7 +3694,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" ht="13.5" spans="1:19">
+    <row r="99" spans="1:19">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3682,7 +3715,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" ht="13.5" spans="1:19">
+    <row r="100" spans="1:19">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3703,7 +3736,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" ht="13.5" spans="1:19">
+    <row r="101" spans="1:19">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3724,7 +3757,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" ht="13.5" spans="1:19">
+    <row r="102" spans="1:19">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3745,7 +3778,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" ht="13.5" spans="1:19">
+    <row r="103" spans="1:19">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3766,7 +3799,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" ht="13.5" spans="1:19">
+    <row r="104" spans="1:19">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3787,7 +3820,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" ht="13.5" spans="1:19">
+    <row r="105" spans="1:19">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3808,7 +3841,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" ht="13.5" spans="1:19">
+    <row r="106" spans="1:19">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3829,7 +3862,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" ht="13.5" spans="1:19">
+    <row r="107" spans="1:19">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3850,7 +3883,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" ht="13.5" spans="1:19">
+    <row r="108" spans="1:19">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3871,7 +3904,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" ht="13.5" spans="1:19">
+    <row r="109" spans="1:19">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3892,7 +3925,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" ht="13.5" spans="1:19">
+    <row r="110" spans="1:19">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3913,7 +3946,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" ht="13.5" spans="1:19">
+    <row r="111" spans="1:19">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3934,7 +3967,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" ht="13.5" spans="1:19">
+    <row r="112" spans="1:19">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -5861,7 +5894,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5874,28 +5907,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_架构组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25780" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -128,12 +128,6 @@
     <t>田志敏</t>
   </si>
   <si>
-    <t>赵良智</t>
-  </si>
-  <si>
-    <t>待测试</t>
-  </si>
-  <si>
     <t>对应backlog序号</t>
   </si>
   <si>
@@ -157,18 +151,20 @@
   <si>
     <t>修正负责人</t>
   </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -202,107 +198,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,58 +208,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,198 +240,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -656,106 +333,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,318 +343,132 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="1"/>
+    <cellStyle name="常规 4" xfId="5"/>
     <cellStyle name="常规 6" xfId="2"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="4"/>
-    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
-    <cellStyle name="常规" xfId="9"/>
-    <cellStyle name="40% - Accent5" xfId="10" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="11" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="13" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="14" builtinId="43"/>
-    <cellStyle name="常规 3" xfId="15"/>
-    <cellStyle name="Accent4" xfId="16" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="17" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="18" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="19" builtinId="36"/>
-    <cellStyle name="常规 2" xfId="20"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="22" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="24" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="25" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="26" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="27" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="29" builtinId="32"/>
-    <cellStyle name="Bad" xfId="30" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42"/>
-    <cellStyle name="Total" xfId="32" builtinId="25"/>
-    <cellStyle name="Output" xfId="33" builtinId="21"/>
-    <cellStyle name="Currency" xfId="34" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="35" builtinId="38"/>
-    <cellStyle name="Note" xfId="36" builtinId="10"/>
-    <cellStyle name="Input" xfId="37" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="38" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="39" builtinId="22"/>
-    <cellStyle name="Good" xfId="40" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="41" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="42" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="43" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="44" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="45" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="Title" xfId="47" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="48" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="49" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="52" builtinId="17"/>
-    <cellStyle name="Comma" xfId="53" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="54" builtinId="23"/>
-    <cellStyle name="Percent" xfId="55" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1084,7 +477,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1407,15 +800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="11" customWidth="1"/>
@@ -1440,7 +832,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="13.75" spans="1:19">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:20">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1549,7 +941,7 @@
       <c r="S2" s="30"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:20">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1599,7 +991,7 @@
       <c r="S3" s="30"/>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:20">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1649,7 +1041,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="31"/>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:20">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1682,20 +1074,24 @@
         <v>24</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="N5" s="23">
+        <v>42467</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:20">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
@@ -1717,7 +1113,7 @@
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:20">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="16"/>
@@ -1739,7 +1135,7 @@
       <c r="S7" s="30"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:20">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="16"/>
@@ -1761,7 +1157,7 @@
       <c r="S8" s="30"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:20">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="18"/>
       <c r="C9" s="16"/>
@@ -1783,7 +1179,7 @@
       <c r="S9" s="30"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:20">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
@@ -1805,7 +1201,7 @@
       <c r="S10" s="30"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" s="9" customFormat="1" spans="1:20">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
@@ -1827,7 +1223,7 @@
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" s="9" customFormat="1" spans="1:20">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="18"/>
       <c r="C12" s="16"/>
@@ -1849,7 +1245,7 @@
       <c r="S12" s="30"/>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" s="9" customFormat="1" spans="1:20">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="18"/>
       <c r="C13" s="16"/>
@@ -1871,7 +1267,7 @@
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" s="9" customFormat="1" spans="1:20">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
@@ -1893,7 +1289,7 @@
       <c r="S14" s="30"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" s="9" customFormat="1" spans="1:20">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
@@ -1915,7 +1311,7 @@
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" s="9" customFormat="1" spans="1:20">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1937,7 +1333,7 @@
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" s="9" customFormat="1" spans="1:20">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1959,7 +1355,7 @@
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" s="9" customFormat="1" spans="1:20">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1981,7 +1377,7 @@
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
     </row>
-    <row r="19" s="9" customFormat="1" spans="1:20">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -2003,7 +1399,7 @@
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" s="9" customFormat="1" spans="1:20">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -2025,7 +1421,7 @@
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
     </row>
-    <row r="21" s="9" customFormat="1" spans="1:20">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -2047,7 +1443,7 @@
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" s="9" customFormat="1" spans="1:20">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -2069,7 +1465,7 @@
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" s="9" customFormat="1" spans="1:20">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -2091,7 +1487,7 @@
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" s="9" customFormat="1" spans="1:20">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -2113,7 +1509,7 @@
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
     </row>
-    <row r="25" s="9" customFormat="1" spans="1:20">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -2135,7 +1531,7 @@
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" s="9" customFormat="1" spans="1:20">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -2157,7 +1553,7 @@
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
     </row>
-    <row r="27" s="9" customFormat="1" spans="1:20">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -2179,7 +1575,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" s="9" customFormat="1" spans="1:20">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -2201,7 +1597,7 @@
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
     </row>
-    <row r="29" s="9" customFormat="1" spans="1:20">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -2223,7 +1619,7 @@
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" s="9" customFormat="1" spans="1:20">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -2245,7 +1641,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" s="9" customFormat="1" spans="1:20">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -2267,7 +1663,7 @@
       <c r="S31" s="30"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" s="9" customFormat="1" spans="1:20">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -2289,7 +1685,7 @@
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" s="9" customFormat="1" spans="1:20">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -2311,7 +1707,7 @@
       <c r="S33" s="30"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" s="9" customFormat="1" spans="1:20">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -2333,7 +1729,7 @@
       <c r="S34" s="30"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" s="9" customFormat="1" spans="1:20">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -2355,7 +1751,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" s="9" customFormat="1" spans="1:20">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -2377,7 +1773,7 @@
       <c r="S36" s="30"/>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" s="9" customFormat="1" spans="1:20">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -2399,7 +1795,7 @@
       <c r="S37" s="30"/>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" s="9" customFormat="1" spans="1:20">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -2421,7 +1817,7 @@
       <c r="S38" s="30"/>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" s="9" customFormat="1" spans="1:20">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -2443,7 +1839,7 @@
       <c r="S39" s="30"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" s="9" customFormat="1" spans="1:20">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -2465,7 +1861,7 @@
       <c r="S40" s="30"/>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" s="9" customFormat="1" spans="1:20">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -2487,7 +1883,7 @@
       <c r="S41" s="30"/>
       <c r="T41" s="31"/>
     </row>
-    <row r="42" s="9" customFormat="1" spans="1:20">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -2509,7 +1905,7 @@
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" s="9" customFormat="1" spans="1:20">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2531,7 +1927,7 @@
       <c r="S43" s="30"/>
       <c r="T43" s="31"/>
     </row>
-    <row r="44" s="9" customFormat="1" spans="1:20">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2553,7 +1949,7 @@
       <c r="S44" s="30"/>
       <c r="T44" s="31"/>
     </row>
-    <row r="45" s="9" customFormat="1" spans="1:20">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
@@ -2575,7 +1971,7 @@
       <c r="S45" s="30"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" s="9" customFormat="1" spans="1:20">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
@@ -2597,7 +1993,7 @@
       <c r="S46" s="30"/>
       <c r="T46" s="31"/>
     </row>
-    <row r="47" s="9" customFormat="1" spans="1:20">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
@@ -2619,7 +2015,7 @@
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
     </row>
-    <row r="48" s="9" customFormat="1" spans="1:20">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
@@ -2641,7 +2037,7 @@
       <c r="S48" s="30"/>
       <c r="T48" s="31"/>
     </row>
-    <row r="49" s="9" customFormat="1" spans="1:20">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2663,7 +2059,7 @@
       <c r="S49" s="30"/>
       <c r="T49" s="31"/>
     </row>
-    <row r="50" s="9" customFormat="1" spans="1:20">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="19"/>
@@ -2685,7 +2081,7 @@
       <c r="S50" s="20"/>
       <c r="T50" s="31"/>
     </row>
-    <row r="51" s="9" customFormat="1" spans="1:20">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="19"/>
@@ -2707,7 +2103,7 @@
       <c r="S51" s="20"/>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2728,7 +2124,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2749,7 +2145,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2770,7 +2166,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2791,7 +2187,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2812,7 +2208,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2833,7 +2229,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2854,7 +2250,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2875,7 +2271,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2896,7 +2292,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2917,7 +2313,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2938,7 +2334,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2959,7 +2355,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2980,7 +2376,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -3001,7 +2397,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -3022,7 +2418,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -3043,7 +2439,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -3064,7 +2460,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -3085,7 +2481,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -3106,7 +2502,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -3127,7 +2523,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -3148,7 +2544,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -3169,7 +2565,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -3190,7 +2586,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -3211,7 +2607,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -3232,7 +2628,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -3253,7 +2649,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -3274,7 +2670,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -3295,7 +2691,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -3316,7 +2712,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -3337,7 +2733,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -3358,7 +2754,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3379,7 +2775,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3400,7 +2796,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3421,7 +2817,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3442,7 +2838,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3463,7 +2859,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3484,7 +2880,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3505,7 +2901,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3526,7 +2922,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3547,7 +2943,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3568,7 +2964,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3589,7 +2985,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3610,7 +3006,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3631,7 +3027,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3652,7 +3048,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3673,7 +3069,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3694,7 +3090,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3715,7 +3111,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3736,7 +3132,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3757,7 +3153,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3778,7 +3174,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3799,7 +3195,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3820,7 +3216,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3841,7 +3237,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3862,7 +3258,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3883,7 +3279,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3904,7 +3300,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3925,7 +3321,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3946,7 +3342,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3967,7 +3363,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3988,7 +3384,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -4009,7 +3405,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -4030,7 +3426,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -4051,7 +3447,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -4072,7 +3468,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -4093,7 +3489,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -4114,7 +3510,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -4135,7 +3531,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -4156,7 +3552,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -4177,7 +3573,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -4198,7 +3594,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -4219,7 +3615,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -4240,7 +3636,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -4261,7 +3657,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -4282,7 +3678,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -4303,7 +3699,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -4324,7 +3720,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -4345,7 +3741,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -4366,7 +3762,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -4387,7 +3783,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -4408,7 +3804,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -4429,7 +3825,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -4450,7 +3846,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -4471,7 +3867,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -4492,7 +3888,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4513,7 +3909,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4534,7 +3930,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4555,7 +3951,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4576,7 +3972,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4597,7 +3993,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4618,7 +4014,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4639,7 +4035,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4660,7 +4056,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4681,7 +4077,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4702,7 +4098,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4723,7 +4119,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4744,7 +4140,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4765,7 +4161,7 @@
       <c r="R149" s="21"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4786,7 +4182,7 @@
       <c r="R150" s="21"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4807,7 +4203,7 @@
       <c r="R151" s="21"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4828,7 +4224,7 @@
       <c r="R152" s="21"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4849,7 +4245,7 @@
       <c r="R153" s="21"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4870,7 +4266,7 @@
       <c r="R154" s="21"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4891,7 +4287,7 @@
       <c r="R155" s="21"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4912,7 +4308,7 @@
       <c r="R156" s="21"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4933,7 +4329,7 @@
       <c r="R157" s="21"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4954,7 +4350,7 @@
       <c r="R158" s="21"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4975,7 +4371,7 @@
       <c r="R159" s="21"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4996,7 +4392,7 @@
       <c r="R160" s="21"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -5017,7 +4413,7 @@
       <c r="R161" s="21"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -5038,7 +4434,7 @@
       <c r="R162" s="21"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -5059,7 +4455,7 @@
       <c r="R163" s="21"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -5080,7 +4476,7 @@
       <c r="R164" s="21"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -5101,7 +4497,7 @@
       <c r="R165" s="21"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -5122,7 +4518,7 @@
       <c r="R166" s="21"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -5143,7 +4539,7 @@
       <c r="R167" s="21"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -5164,7 +4560,7 @@
       <c r="R168" s="21"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -5185,7 +4581,7 @@
       <c r="R169" s="21"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -5206,7 +4602,7 @@
       <c r="R170" s="21"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -5227,7 +4623,7 @@
       <c r="R171" s="21"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -5248,7 +4644,7 @@
       <c r="R172" s="21"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -5266,7 +4662,7 @@
       <c r="O173" s="22"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -5284,7 +4680,7 @@
       <c r="O174" s="22"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -5302,7 +4698,7 @@
       <c r="O175" s="22"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -5320,7 +4716,7 @@
       <c r="O176" s="22"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -5338,7 +4734,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -5356,7 +4752,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -5374,7 +4770,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -5392,7 +4788,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -5410,7 +4806,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -5428,7 +4824,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -5446,7 +4842,7 @@
       <c r="O183" s="22"/>
       <c r="S183" s="22"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="21"/>
@@ -5464,7 +4860,7 @@
       <c r="O184" s="22"/>
       <c r="S184" s="22"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="21"/>
@@ -5482,7 +4878,7 @@
       <c r="O185" s="22"/>
       <c r="S185" s="22"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="21"/>
@@ -5500,7 +4896,7 @@
       <c r="O186" s="22"/>
       <c r="S186" s="22"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="21"/>
@@ -5518,7 +4914,7 @@
       <c r="O187" s="22"/>
       <c r="S187" s="22"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="21"/>
@@ -5536,7 +4932,7 @@
       <c r="O188" s="22"/>
       <c r="S188" s="22"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="21"/>
@@ -5554,7 +4950,7 @@
       <c r="O189" s="22"/>
       <c r="S189" s="22"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="21"/>
@@ -5572,7 +4968,7 @@
       <c r="O190" s="22"/>
       <c r="S190" s="22"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="21"/>
       <c r="B191" s="22"/>
       <c r="C191" s="21"/>
@@ -5590,7 +4986,7 @@
       <c r="O191" s="22"/>
       <c r="S191" s="22"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="21"/>
       <c r="B192" s="22"/>
       <c r="C192" s="21"/>
@@ -5608,7 +5004,7 @@
       <c r="O192" s="22"/>
       <c r="S192" s="22"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="21"/>
@@ -5626,7 +5022,7 @@
       <c r="O193" s="22"/>
       <c r="S193" s="22"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="21"/>
@@ -5644,7 +5040,7 @@
       <c r="O194" s="22"/>
       <c r="S194" s="22"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="21"/>
       <c r="B195" s="22"/>
       <c r="C195" s="21"/>
@@ -5662,7 +5058,7 @@
       <c r="O195" s="22"/>
       <c r="S195" s="22"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="21"/>
       <c r="B196" s="22"/>
       <c r="C196" s="21"/>
@@ -5680,7 +5076,7 @@
       <c r="O196" s="22"/>
       <c r="S196" s="22"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="21"/>
       <c r="B197" s="22"/>
       <c r="C197" s="21"/>
@@ -5698,7 +5094,7 @@
       <c r="O197" s="22"/>
       <c r="S197" s="22"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="21"/>
       <c r="B198" s="22"/>
       <c r="C198" s="21"/>
@@ -5716,7 +5112,7 @@
       <c r="O198" s="22"/>
       <c r="S198" s="22"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="21"/>
       <c r="B199" s="22"/>
       <c r="C199" s="21"/>
@@ -5734,7 +5130,7 @@
       <c r="O199" s="22"/>
       <c r="S199" s="22"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="21"/>
@@ -5752,7 +5148,7 @@
       <c r="O200" s="22"/>
       <c r="S200" s="22"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="21"/>
@@ -5770,7 +5166,7 @@
       <c r="O201" s="22"/>
       <c r="S201" s="22"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="21"/>
       <c r="B202" s="22"/>
       <c r="C202" s="21"/>
@@ -5788,7 +5184,7 @@
       <c r="O202" s="22"/>
       <c r="S202" s="22"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="21"/>
       <c r="B203" s="22"/>
       <c r="C203" s="21"/>
@@ -5806,7 +5202,7 @@
       <c r="O203" s="22"/>
       <c r="S203" s="22"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="21"/>
       <c r="B204" s="22"/>
       <c r="C204" s="21"/>
@@ -5824,7 +5220,7 @@
       <c r="O204" s="22"/>
       <c r="S204" s="22"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="21"/>
       <c r="B205" s="22"/>
       <c r="C205" s="21"/>
@@ -5842,7 +5238,7 @@
       <c r="O205" s="22"/>
       <c r="S205" s="22"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="21"/>
       <c r="B206" s="22"/>
       <c r="C206" s="21"/>
@@ -5860,7 +5256,7 @@
       <c r="O206" s="22"/>
       <c r="S206" s="22"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="21"/>
@@ -5879,22 +5275,21 @@
       <c r="S207" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5905,33 +5300,33 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5941,7 +5336,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5951,7 +5346,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5961,7 +5356,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5971,7 +5366,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5981,7 +5376,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5991,7 +5386,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6001,7 +5396,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6011,7 +5406,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6021,7 +5416,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6031,7 +5426,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6041,7 +5436,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6051,7 +5446,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6061,7 +5456,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6071,7 +5466,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6081,7 +5476,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6091,7 +5486,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6101,7 +5496,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6112,12 +5507,12 @@
       <c r="H19" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>